--- a/stalist.xlsx
+++ b/stalist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucinda/Downloads/Data Download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9EE2CF-CCBF-C34B-9DBF-E5B48DF67E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FACD7-B4FE-E747-85D2-B5E5390F9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="5300" windowWidth="44480" windowHeight="17440" xr2:uid="{DA0E83F3-D192-8E49-B619-AE0883EFAF53}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="51">
   <si>
     <t>Station</t>
   </si>
@@ -94,21 +94,6 @@
     <t>SSP</t>
   </si>
   <si>
-    <t>CHUK</t>
-  </si>
-  <si>
-    <t>CHUK2</t>
-  </si>
-  <si>
-    <t>KOSR</t>
-  </si>
-  <si>
-    <t>KOSR2</t>
-  </si>
-  <si>
-    <t>OJP</t>
-  </si>
-  <si>
     <t>NM01</t>
   </si>
   <si>
@@ -197,129 +182,6 @@
   </si>
   <si>
     <t>Network</t>
-  </si>
-  <si>
-    <t>BOREHOLE</t>
-  </si>
-  <si>
-    <t>WP1</t>
-  </si>
-  <si>
-    <t>WP2</t>
-  </si>
-  <si>
-    <t>BBOBS</t>
-  </si>
-  <si>
-    <t>PHS03</t>
-  </si>
-  <si>
-    <t>PHS04</t>
-  </si>
-  <si>
-    <t>PHS05</t>
-  </si>
-  <si>
-    <t>PHS08</t>
-  </si>
-  <si>
-    <t>PHS09</t>
-  </si>
-  <si>
-    <t>PHS11</t>
-  </si>
-  <si>
-    <t>PHS12</t>
-  </si>
-  <si>
-    <t>PHS13</t>
-  </si>
-  <si>
-    <t>MA02</t>
-  </si>
-  <si>
-    <t>MA04</t>
-  </si>
-  <si>
-    <t>MA05</t>
-  </si>
-  <si>
-    <t>MA06</t>
-  </si>
-  <si>
-    <t>MA07</t>
-  </si>
-  <si>
-    <t>MA08</t>
-  </si>
-  <si>
-    <t>MA09</t>
-  </si>
-  <si>
-    <t>MRG03</t>
-  </si>
-  <si>
-    <t>MRG04</t>
-  </si>
-  <si>
-    <t>MRG16</t>
-  </si>
-  <si>
-    <t>MRG22</t>
-  </si>
-  <si>
-    <t>MRG40</t>
-  </si>
-  <si>
-    <t>MRG42</t>
-  </si>
-  <si>
-    <t>MRG58</t>
-  </si>
-  <si>
-    <t>WPAC1</t>
-  </si>
-  <si>
-    <t>WPAC2</t>
-  </si>
-  <si>
-    <t>WPAC3</t>
-  </si>
-  <si>
-    <t>NOT1</t>
-  </si>
-  <si>
-    <t>SWSB1</t>
-  </si>
-  <si>
-    <t>SWSB2</t>
-  </si>
-  <si>
-    <t>FP2</t>
-  </si>
-  <si>
-    <t>FP3</t>
-  </si>
-  <si>
-    <t>FP4</t>
-  </si>
-  <si>
-    <t>FP5</t>
-  </si>
-  <si>
-    <t>FP6</t>
-  </si>
-  <si>
-    <t>FP7</t>
-  </si>
-  <si>
-    <t>FP8</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
   </si>
   <si>
     <t>Start</t>
@@ -333,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -380,7 +242,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5412463E-0CE7-404A-81B8-F1505AD7D9DD}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -711,16 +573,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,69 +1049,69 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2">
-        <v>42380</v>
+        <v>40345</v>
       </c>
       <c r="D35" s="2">
-        <v>42535</v>
+        <v>40719</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="2">
-        <v>41906</v>
+        <v>40349</v>
       </c>
       <c r="D36" s="2">
-        <v>42773</v>
+        <v>40718</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="2">
-        <v>42400</v>
+        <v>40344</v>
       </c>
       <c r="D37" s="2">
-        <v>42531</v>
+        <v>40718</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>41901</v>
+        <v>40350</v>
       </c>
       <c r="D38" s="2">
-        <v>42772</v>
+        <v>40719</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>40345</v>
+        <v>40350</v>
       </c>
       <c r="D39" s="2">
         <v>40719</v>
@@ -1257,209 +1119,209 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C40" s="2">
-        <v>40349</v>
+        <v>41142</v>
       </c>
       <c r="D40" s="2">
-        <v>40718</v>
+        <v>41507</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C41" s="2">
-        <v>40344</v>
+        <v>41145</v>
       </c>
       <c r="D41" s="2">
-        <v>40718</v>
+        <v>41871</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
-        <v>40350</v>
+        <v>41145</v>
       </c>
       <c r="D42" s="2">
-        <v>40719</v>
+        <v>41875</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2">
-        <v>40350</v>
+        <v>41141</v>
       </c>
       <c r="D43" s="2">
-        <v>40719</v>
+        <v>41507</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2">
         <v>41142</v>
       </c>
       <c r="D44" s="2">
-        <v>41507</v>
+        <v>41508</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2">
-        <v>41145</v>
+        <v>41147</v>
       </c>
       <c r="D45" s="2">
-        <v>41871</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2">
-        <v>41145</v>
+        <v>41153</v>
       </c>
       <c r="D46" s="2">
-        <v>41875</v>
+        <v>41508</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2">
-        <v>41141</v>
+        <v>41147</v>
       </c>
       <c r="D47" s="2">
-        <v>41507</v>
+        <v>41877</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2">
-        <v>41142</v>
+        <v>41132</v>
       </c>
       <c r="D48" s="2">
-        <v>41508</v>
+        <v>41879</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2">
-        <v>41147</v>
+        <v>41149</v>
       </c>
       <c r="D49" s="2">
-        <v>41513</v>
+        <v>41515</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2">
-        <v>41153</v>
+        <v>40869</v>
       </c>
       <c r="D50" s="2">
-        <v>41508</v>
+        <v>41456</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" s="2">
-        <v>41147</v>
+        <v>40868</v>
       </c>
       <c r="D51" s="2">
-        <v>41877</v>
+        <v>41456</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="2">
-        <v>41132</v>
+        <v>40870</v>
       </c>
       <c r="D52" s="2">
-        <v>41879</v>
+        <v>41456</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2">
-        <v>41149</v>
+        <v>40868</v>
       </c>
       <c r="D53" s="2">
-        <v>41515</v>
+        <v>41456</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2">
-        <v>40869</v>
+        <v>40871</v>
       </c>
       <c r="D54" s="2">
         <v>41456</v>
@@ -1467,13 +1329,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="2">
-        <v>40868</v>
+        <v>40870</v>
       </c>
       <c r="D55" s="2">
         <v>41456</v>
@@ -1481,27 +1343,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2">
         <v>40870</v>
       </c>
       <c r="D56" s="2">
-        <v>41456</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="2">
-        <v>40868</v>
+        <v>40870</v>
       </c>
       <c r="D57" s="2">
         <v>41456</v>
@@ -1509,265 +1371,265 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C58" s="2">
-        <v>40871</v>
+        <v>41510</v>
       </c>
       <c r="D58" s="2">
-        <v>41456</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2">
-        <v>40870</v>
+        <v>41510</v>
       </c>
       <c r="D59" s="2">
-        <v>41456</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2">
-        <v>40870</v>
+        <v>41511</v>
       </c>
       <c r="D60" s="2">
-        <v>41384</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C61" s="2">
-        <v>40870</v>
+        <v>41513</v>
       </c>
       <c r="D61" s="2">
-        <v>41456</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2">
-        <v>41510</v>
+        <v>41509</v>
       </c>
       <c r="D62" s="2">
-        <v>41800</v>
+        <v>41883</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C63" s="2">
-        <v>41510</v>
+        <v>41515</v>
       </c>
       <c r="D63" s="2">
-        <v>41800</v>
+        <v>41908</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2">
-        <v>41511</v>
+        <v>41520</v>
       </c>
       <c r="D64" s="2">
-        <v>41798</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C65" s="2">
-        <v>41513</v>
+        <v>41518</v>
       </c>
       <c r="D65" s="2">
-        <v>41795</v>
+        <v>41908</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2">
-        <v>41509</v>
+        <v>41519</v>
       </c>
       <c r="D66" s="2">
-        <v>41883</v>
+        <v>41908</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C67" s="2">
-        <v>41515</v>
+        <v>41518</v>
       </c>
       <c r="D67" s="2">
-        <v>41908</v>
+        <v>41909</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="2">
-        <v>41520</v>
+        <v>41519</v>
       </c>
       <c r="D68" s="2">
-        <v>41906</v>
+        <v>41909</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2">
-        <v>41518</v>
+        <v>39851</v>
       </c>
       <c r="D69" s="2">
-        <v>41908</v>
+        <v>40360</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2">
-        <v>41519</v>
+        <v>39852</v>
       </c>
       <c r="D70" s="2">
-        <v>41908</v>
+        <v>40358</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2">
-        <v>41518</v>
+        <v>39853</v>
       </c>
       <c r="D71" s="2">
-        <v>41909</v>
+        <v>40359</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C72" s="2">
-        <v>41519</v>
+        <v>39853</v>
       </c>
       <c r="D72" s="2">
-        <v>41909</v>
+        <v>40360</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C73" s="2">
-        <v>39851</v>
+        <v>39854</v>
       </c>
       <c r="D73" s="2">
-        <v>40360</v>
+        <v>40359</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2">
-        <v>39852</v>
+        <v>39856</v>
       </c>
       <c r="D74" s="2">
-        <v>40358</v>
+        <v>40360</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2">
-        <v>39853</v>
+        <v>39855</v>
       </c>
       <c r="D75" s="2">
-        <v>40359</v>
+        <v>40360</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2">
-        <v>39853</v>
+        <v>39856</v>
       </c>
       <c r="D76" s="2">
         <v>40360</v>
@@ -1775,731 +1637,205 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2">
-        <v>39854</v>
+        <v>39857</v>
       </c>
       <c r="D77" s="2">
-        <v>40359</v>
+        <v>40360</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="2">
-        <v>39856</v>
-      </c>
-      <c r="D78" s="2">
-        <v>40360</v>
-      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="2">
-        <v>39855</v>
-      </c>
-      <c r="D79" s="2">
-        <v>40360</v>
-      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="2">
-        <v>39856</v>
-      </c>
-      <c r="D80" s="2">
-        <v>40360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="2">
-        <v>39857</v>
-      </c>
-      <c r="D81" s="2">
-        <v>40360</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="2">
-        <v>37341</v>
-      </c>
-      <c r="D82" s="2">
-        <v>38032</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="2">
-        <v>36718</v>
-      </c>
-      <c r="D83" s="2">
-        <v>36721</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" s="2">
-        <v>36723</v>
-      </c>
-      <c r="D84" s="2">
-        <v>36724</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36730</v>
-      </c>
-      <c r="D85" s="2">
-        <v>36734</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36828</v>
-      </c>
-      <c r="D86" s="2">
-        <v>36912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="2">
-        <v>37106</v>
-      </c>
-      <c r="D87" s="2">
-        <v>37446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" s="2">
-        <v>38054</v>
-      </c>
-      <c r="D88" s="2">
-        <v>38055</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="2">
-        <v>38107</v>
-      </c>
-      <c r="D89" s="2">
-        <v>38109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="2">
-        <v>38204</v>
-      </c>
-      <c r="D90" s="2">
-        <v>38206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="2">
-        <v>38276</v>
-      </c>
-      <c r="D91" s="2">
-        <v>38277</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D92" s="2">
-        <v>36723</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D93" s="2">
-        <v>36721</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D94" s="2">
-        <v>36720</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D95" s="2">
-        <v>36718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D96" s="2">
-        <v>36717</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D97" s="2">
-        <v>36658</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D98" s="2">
-        <v>36715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="2">
-        <v>36493</v>
-      </c>
-      <c r="D99" s="2">
-        <v>36714</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D100" s="2">
-        <v>37537</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D101" s="2">
-        <v>37515</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D102" s="2">
-        <v>37536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D103" s="2">
-        <v>37527</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C104" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D104" s="2">
-        <v>37532</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D105" s="2">
-        <v>37523</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="2">
-        <v>37172</v>
-      </c>
-      <c r="D106" s="2">
-        <v>37523</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C107" s="2">
-        <v>37792</v>
-      </c>
-      <c r="D107" s="2">
-        <v>38089</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C108" s="2">
-        <v>37793</v>
-      </c>
-      <c r="D108" s="2">
-        <v>38088</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" s="2">
-        <v>37792</v>
-      </c>
-      <c r="D109" s="2">
-        <v>38067</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="2">
-        <v>37790</v>
-      </c>
-      <c r="D110" s="2">
-        <v>38079</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="2">
-        <v>37787</v>
-      </c>
-      <c r="D111" s="2">
-        <v>38082</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C112" s="2">
-        <v>37787</v>
-      </c>
-      <c r="D112" s="2">
-        <v>38079</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" s="2">
-        <v>37794</v>
-      </c>
-      <c r="D113" s="2">
-        <v>38057</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="2">
-        <v>36392</v>
-      </c>
-      <c r="D114" s="2">
-        <v>36604</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C115" s="2">
-        <v>36674</v>
-      </c>
-      <c r="D115" s="2">
-        <v>36829</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="2">
-        <v>37103</v>
-      </c>
-      <c r="D116" s="2">
-        <v>37427</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" s="2">
-        <v>37340</v>
-      </c>
-      <c r="D117" s="2">
-        <v>37529</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" s="2">
-        <v>37533</v>
-      </c>
-      <c r="D118" s="2">
-        <v>37750</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="2">
-        <v>37751</v>
-      </c>
-      <c r="D119" s="2">
-        <v>38117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C120" s="2">
-        <v>37635</v>
-      </c>
-      <c r="D120" s="2">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" s="2">
-        <v>37636</v>
-      </c>
-      <c r="D121" s="2">
-        <v>38001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="2">
-        <v>37638</v>
-      </c>
-      <c r="D122" s="2">
-        <v>38003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="2">
-        <v>37639</v>
-      </c>
-      <c r="D123" s="2">
-        <v>38004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C124" s="2">
-        <v>37640</v>
-      </c>
-      <c r="D124" s="2">
-        <v>38005</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" s="2">
-        <v>37641</v>
-      </c>
-      <c r="D125" s="2">
-        <v>38006</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" s="2">
-        <v>37642</v>
-      </c>
-      <c r="D126" s="2">
-        <v>38007</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C127" s="2">
-        <v>38212</v>
-      </c>
-      <c r="D127" s="2">
-        <v>38510</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C128" s="2">
-        <v>38212</v>
-      </c>
-      <c r="D128" s="2">
-        <v>38509</v>
-      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/stalist.xlsx
+++ b/stalist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucinda/Downloads/Data Download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926FACD7-B4FE-E747-85D2-B5E5390F9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FDD66-8235-344D-9CF2-1C340406BC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="5300" windowWidth="44480" windowHeight="17440" xr2:uid="{DA0E83F3-D192-8E49-B619-AE0883EFAF53}"/>
   </bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5412463E-0CE7-404A-81B8-F1505AD7D9DD}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1661,182 +1661,50 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
